--- a/doc/04_DB定義書_バスター・ムーン0612.xlsx
+++ b/doc/04_DB定義書_バスター・ムーン0612.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{140BDCD4-3209-41C2-BAA2-548C5AC4AB60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2977C92-BD76-4769-A9E7-2202D0B60E50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="90">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -278,16 +278,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>徒歩時間＋提供時間</t>
-    <rPh sb="0" eb="4">
-      <t>トホジカン</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>テイキョウジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -422,10 +412,6 @@
   </si>
   <si>
     <t>photo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>time</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -538,6 +524,23 @@
   </si>
   <si>
     <t>gathers_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提供時間</t>
+    <rPh sb="0" eb="4">
+      <t>テイキョウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>徒歩時間(片道)</t>
+    <rPh sb="0" eb="4">
+      <t>トホジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カタミチ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1062,7 +1065,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1140,10 +1143,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>23</v>
@@ -1155,10 +1158,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>23</v>
@@ -1170,10 +1173,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>23</v>
@@ -1185,10 +1188,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>23</v>
@@ -1203,7 +1206,7 @@
         <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>23</v>
@@ -1215,10 +1218,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>23</v>
@@ -1230,10 +1233,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>23</v>
@@ -1486,7 +1489,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1576,20 +1579,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1604,13 +1607,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" s="3">
         <v>50</v>
@@ -1618,11 +1621,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -1637,10 +1640,10 @@
         <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -1996,7 +1999,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2086,20 +2089,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2117,20 +2120,20 @@
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2142,13 +2145,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -2171,10 +2174,10 @@
         <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="3">
         <v>30</v>
@@ -2184,7 +2187,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2196,13 +2199,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14" s="3">
         <v>140</v>
@@ -2501,10 +2504,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C96F248-F528-4871-AF35-46CAA08DD385}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2522,7 +2525,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
         <v>33</v>
@@ -2542,10 +2545,10 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2563,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -2579,7 +2582,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2595,7 +2598,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2642,25 +2645,25 @@
         <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>posts_restaurant VARCHAR (20),</v>
       </c>
     </row>
@@ -2669,13 +2672,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2683,23 +2686,19 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>time INT ,</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2709,49 +2708,57 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>price INT ,</v>
+        <v>serve INT ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>33</v>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="12"/>
+      <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">posts_genre INT </v>
+        <v>price INT ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="12"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">posts_genre INT </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2768,7 +2775,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2776,7 +2783,7 @@
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2786,7 +2793,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2794,6 +2801,7 @@
       <c r="A17" s="3">
         <v>8</v>
       </c>
+      <c r="B17" s="6"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2811,7 +2819,6 @@
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -3024,7 +3031,25 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
+      <c r="A30" s="3">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3058,7 +3083,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3148,20 +3173,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3179,16 +3204,16 @@
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3202,13 +3227,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3229,10 +3254,10 @@
         <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="3">
         <v>30</v>
@@ -3255,10 +3280,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14" s="3">
         <v>20</v>
@@ -3281,10 +3306,10 @@
         <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3305,10 +3330,10 @@
         <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3329,10 +3354,10 @@
         <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -3353,10 +3378,10 @@
         <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -3377,10 +3402,10 @@
         <v>34</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E19" s="3">
         <v>140</v>
@@ -3400,13 +3425,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -3706,20 +3731,20 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3734,19 +3759,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3760,13 +3785,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3784,13 +3809,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4126,7 +4151,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -4216,20 +4241,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4247,16 +4272,16 @@
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4270,13 +4295,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4294,13 +4319,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4636,7 +4661,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -4726,20 +4751,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4757,20 +4782,20 @@
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4782,19 +4807,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>

--- a/doc/04_DB定義書_バスター・ムーン0612.xlsx
+++ b/doc/04_DB定義書_バスター・ムーン0612.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2977C92-BD76-4769-A9E7-2202D0B60E50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE3B15D-2943-40A4-A72A-87090C480982}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="90">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -2506,7 +2506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C96F248-F528-4871-AF35-46CAA08DD385}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -3622,8 +3622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5F8DCF-A0CF-4B30-8CE1-F9DAE9B5CCE5}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3825,17 +3825,25 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">point INT </v>
+        <v>point INT ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -3843,7 +3851,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>text VARCHAR (100)</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/04_DB定義書_バスター・ムーン0612.xlsx
+++ b/doc/04_DB定義書_バスター・ムーン0612.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE3B15D-2943-40A4-A72A-87090C480982}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46CB488-DF8A-45F8-967D-D73E36F74EC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -541,6 +541,17 @@
     <rPh sb="5" eb="7">
       <t>カタミチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿ID</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>posts_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3623,7 +3634,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3776,7 +3787,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f>#REF!&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -3784,23 +3795,25 @@
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>39</v>
+      <c r="B12" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>date DATE ,</v>
       </c>
     </row>
@@ -3809,13 +3822,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3824,7 +3837,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>point INT ,</v>
       </c>
     </row>
@@ -3833,43 +3846,49 @@
         <v>5</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="3">
-        <v>100</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>text VARCHAR (100)</v>
+      <c r="L14" t="e">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+      <c r="L15" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3886,7 +3905,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L15:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
